--- a/uploads/sandbox_Production_invoice_yaqoob.xlsx
+++ b/uploads/sandbox_Production_invoice_yaqoob.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arham\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C416CD6-F01B-413B-97F3-E1666986D7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA115AA4-22BC-4258-BB0A-80F2E69300DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{760F17F9-C6B3-41C5-B918-0FB8C401C1FD}"/>
   </bookViews>
@@ -2218,6 +2218,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2862,7 +2863,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
